--- a/Raw files GPS/Raw files GPS Zagłębie/poniedziałek/wyniki/wyniki_Kurminowski_27.01.2025_8.xlsx
+++ b/Raw files GPS/Raw files GPS Zagłębie/poniedziałek/wyniki/wyniki_Kurminowski_27.01.2025_8.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,130 +463,297 @@
           <t>Velocity_Bin</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Trening</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>27.01.2025 14:20:21.18</t>
-        </is>
+      <c r="A2" s="2" t="n">
+        <v>45684.59115486111</v>
       </c>
       <c r="B2" t="n">
+        <v>475.7</v>
+      </c>
+      <c r="C2" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.104219096047534</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45684.59195231481</v>
+      </c>
+      <c r="B3" t="n">
+        <v>544.6</v>
+      </c>
+      <c r="C3" t="n">
+        <v>14.54</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.930859497615269</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45684.59379837963</v>
+      </c>
+      <c r="B4" t="n">
+        <v>704.1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>11.77</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.81770658493042</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45684.59115254629</v>
+      </c>
+      <c r="B5" t="n">
+        <v>475.5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.056578295571462</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45684.59379606482</v>
+      </c>
+      <c r="B6" t="n">
+        <v>703.9</v>
+      </c>
+      <c r="C6" t="n">
+        <v>9.26</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.633463025093079</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45684.59401944444</v>
+      </c>
+      <c r="B7" t="n">
+        <v>723.2</v>
+      </c>
+      <c r="C7" t="n">
+        <v>9.619999999999999</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.420666234833852</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45684.59746736111</v>
+      </c>
+      <c r="B8" t="n">
         <v>1021.1</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C8" t="n">
         <v>13.91</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D8" t="n">
         <v>4.529195376804894</v>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>10-15</t>
         </is>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>27.01.2025 14:22:25.48</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45684.59890601852</v>
+      </c>
+      <c r="B9" t="n">
         <v>1145.4</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C9" t="n">
         <v>13.96</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D9" t="n">
         <v>4.76598743030003</v>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>10-15</t>
         </is>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>27.01.2025 14:26:45.88</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45684.60191990741</v>
+      </c>
+      <c r="B10" t="n">
         <v>1405.8</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C10" t="n">
         <v>14.85</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D10" t="n">
         <v>4.633814913885933</v>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>10-15</t>
         </is>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>27.01.2025 14:20:20.88</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45684.59746388889</v>
+      </c>
+      <c r="B11" t="n">
         <v>1020.8</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C11" t="n">
         <v>8.66</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D11" t="n">
         <v>3.780123114585876</v>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>5-10</t>
         </is>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>27.01.2025 14:26:45.58</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45684.60191643518</v>
+      </c>
+      <c r="B12" t="n">
         <v>1405.5</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C12" t="n">
         <v>9.34</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D12" t="n">
         <v>3.636793834822519</v>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>5-10</t>
         </is>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>27.01.2025 14:37:34.48</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>2054.4</v>
-      </c>
-      <c r="C7" t="n">
-        <v>9.869999999999999</v>
-      </c>
-      <c r="D7" t="n">
-        <v>4.053363425391061</v>
-      </c>
-      <c r="E7" t="inlineStr">
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45684.60288518519</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1489.2</v>
+      </c>
+      <c r="C13" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>3.464750153677804</v>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>5-10</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
         </is>
       </c>
     </row>
